--- a/config/belviq cardio adr.xlsx
+++ b/config/belviq cardio adr.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\einat\OneDrive\Documents\anti obesity cardiovascular safety\drug and ADR terms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boris/devel/faers/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C3A9F2-2609-4245-94D1-659E9C089DEE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28680" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cardio non valve and pulmonary" sheetId="1" r:id="rId1"/>
@@ -334,18 +335,18 @@
     <t>Belviq XR</t>
   </si>
   <si>
-    <t>car</t>
+    <t>Locaserin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -360,7 +361,7 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="177"/>
       <scheme val="minor"/>
@@ -386,9 +387,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -399,17 +409,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="היפר-קישור" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -686,18 +697,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+    <sheetView rightToLeft="1" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="45.875" customWidth="1"/>
-    <col min="3" max="3" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -708,7 +719,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -716,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -724,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -732,37 +743,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -772,7 +783,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
@@ -797,7 +808,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
@@ -807,32 +818,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
@@ -847,7 +858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>26</v>
       </c>
@@ -932,7 +943,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>43</v>
       </c>
@@ -982,52 +993,52 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B59" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B60" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B64" s="1" t="s">
         <v>62</v>
       </c>
@@ -1042,7 +1053,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>65</v>
       </c>
@@ -1069,22 +1080,22 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="http://bioportal.bioontology.org/ontologies/ICD10CM?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FICD10CM%2FI21.3"/>
-    <hyperlink ref="B14" r:id="rId2" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10030001"/>
-    <hyperlink ref="B15" r:id="rId3" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10011108"/>
-    <hyperlink ref="B16" r:id="rId4" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10021922"/>
-    <hyperlink ref="B26" r:id="rId5" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078240"/>
-    <hyperlink ref="B27" r:id="rId6" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036886"/>
-    <hyperlink ref="B29" r:id="rId7" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10037705"/>
-    <hyperlink ref="B30" r:id="rId8" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078242"/>
-    <hyperlink ref="B32" r:id="rId9" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10003674"/>
-    <hyperlink ref="B33" r:id="rId10" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10054581"/>
-    <hyperlink ref="B40" r:id="rId11" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014387"/>
-    <hyperlink ref="B65" r:id="rId12" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10043821"/>
-    <hyperlink ref="B66" r:id="rId13" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036359"/>
-    <hyperlink ref="B68" r:id="rId14" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10023027"/>
-    <hyperlink ref="B69" r:id="rId15" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014515"/>
-    <hyperlink ref="B71" r:id="rId16" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10072761"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://bioportal.bioontology.org/ontologies/ICD10CM?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FICD10CM%2FI21.3" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10030001" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B15" r:id="rId3" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10011108" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B16" r:id="rId4" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10021922" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B26" r:id="rId5" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078240" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B27" r:id="rId6" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036886" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B29" r:id="rId7" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10037705" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078242" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B32" r:id="rId9" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10003674" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B33" r:id="rId10" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10054581" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B40" r:id="rId11" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014387" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B65" r:id="rId12" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10043821" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B66" r:id="rId13" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036359" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B68" r:id="rId14" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10023027" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B69" r:id="rId15" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014515" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B71" r:id="rId16" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10072761" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -1092,27 +1103,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
-    </sheetView>
+    <sheetView rightToLeft="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.25" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>99</v>
       </c>
@@ -1128,7 +1137,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -1141,12 +1150,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
@@ -1156,7 +1165,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>77</v>
       </c>
@@ -1166,57 +1175,57 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>89</v>
       </c>
@@ -1258,24 +1267,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://bioportal.bioontology.org/ontologies/ICD10?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FICD10%2FI05.9"/>
-    <hyperlink ref="B8" r:id="rId2" display="http://bioportal.bioontology.org/ontologies/CRISP?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FCSP%2F1393-3777"/>
-    <hyperlink ref="B10" r:id="rId3" display="http://bioportal.bioontology.org/ontologies/SNOMEDCT?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FSNOMEDCT%2F194732001"/>
-    <hyperlink ref="B26" r:id="rId4" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10026985"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://bioportal.bioontology.org/ontologies/ICD10?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FICD10%2FI05.9" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B8" r:id="rId2" display="http://bioportal.bioontology.org/ontologies/CRISP?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FCSP%2F1393-3777" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="http://bioportal.bioontology.org/ontologies/SNOMEDCT?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FSNOMEDCT%2F194732001" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="B26" r:id="rId4" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10026985" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B92"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="46" customWidth="1"/>
   </cols>
@@ -1288,7 +1297,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
@@ -1296,7 +1305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -1304,7 +1313,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
@@ -1312,7 +1321,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1322,7 +1331,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1347,7 +1356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1357,32 +1366,32 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1397,7 +1406,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>26</v>
       </c>
@@ -1482,7 +1491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>43</v>
       </c>
@@ -1532,52 +1541,52 @@
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B49" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B50" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B51" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B52" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B54" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B57" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>62</v>
       </c>
@@ -1592,7 +1601,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B61" s="3" t="s">
         <v>65</v>
       </c>
@@ -1627,7 +1636,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B68" s="1" t="s">
         <v>72</v>
       </c>
@@ -1637,12 +1646,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B70" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B71" s="1" t="s">
         <v>75</v>
       </c>
@@ -1652,7 +1661,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B73" s="1" t="s">
         <v>77</v>
       </c>
@@ -1662,57 +1671,57 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B75" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
         <v>89</v>
       </c>
@@ -1754,25 +1763,25 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10030001"/>
-    <hyperlink ref="B9" r:id="rId2" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10011108"/>
-    <hyperlink ref="B10" r:id="rId3" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10021922"/>
-    <hyperlink ref="B20" r:id="rId4" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078240"/>
-    <hyperlink ref="B21" r:id="rId5" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036886"/>
-    <hyperlink ref="B23" r:id="rId6" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10037705"/>
-    <hyperlink ref="B24" r:id="rId7" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078242"/>
-    <hyperlink ref="B26" r:id="rId8" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10003674"/>
-    <hyperlink ref="B27" r:id="rId9" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10054581"/>
-    <hyperlink ref="B34" r:id="rId10" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014387"/>
-    <hyperlink ref="B59" r:id="rId11" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10043821"/>
-    <hyperlink ref="B60" r:id="rId12" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036359"/>
-    <hyperlink ref="B62" r:id="rId13" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10023027"/>
-    <hyperlink ref="B63" r:id="rId14" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014515"/>
-    <hyperlink ref="B65" r:id="rId15" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10072761"/>
-    <hyperlink ref="B66" r:id="rId16" display="http://bioportal.bioontology.org/ontologies/ICD10?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FICD10%2FI05.9"/>
-    <hyperlink ref="B72" r:id="rId17" display="http://bioportal.bioontology.org/ontologies/CRISP?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FCSP%2F1393-3777"/>
-    <hyperlink ref="B74" r:id="rId18" display="http://bioportal.bioontology.org/ontologies/SNOMEDCT?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FSNOMEDCT%2F194732001"/>
-    <hyperlink ref="B90" r:id="rId19" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10026985"/>
+    <hyperlink ref="B8" r:id="rId1" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10030001" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B9" r:id="rId2" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10011108" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B10" r:id="rId3" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10021922" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B20" r:id="rId4" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078240" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B21" r:id="rId5" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036886" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B23" r:id="rId6" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10037705" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B24" r:id="rId7" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078242" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B26" r:id="rId8" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10003674" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B27" r:id="rId9" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10054581" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B34" r:id="rId10" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014387" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B59" r:id="rId11" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10043821" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B60" r:id="rId12" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036359" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B62" r:id="rId13" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10023027" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B63" r:id="rId14" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014515" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B65" r:id="rId15" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10072761" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B66" r:id="rId16" display="http://bioportal.bioontology.org/ontologies/ICD10?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FICD10%2FI05.9" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B72" r:id="rId17" display="http://bioportal.bioontology.org/ontologies/CRISP?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FCSP%2F1393-3777" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="B74" r:id="rId18" display="http://bioportal.bioontology.org/ontologies/SNOMEDCT?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FSNOMEDCT%2F194732001" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B90" r:id="rId19" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10026985" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/config/belviq cardio adr.xlsx
+++ b/config/belviq cardio adr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boris/devel/faers/config/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C3A9F2-2609-4245-94D1-659E9C089DEE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B51314-EC51-144F-B919-DA147E382189}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28680" windowHeight="21580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="34020" windowHeight="26120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cardio non valve and pulmonary" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="102">
   <si>
     <t>Acute myocardial infarction</t>
   </si>
@@ -333,9 +333,6 @@
   </si>
   <si>
     <t>Belviq XR</t>
-  </si>
-  <si>
-    <t>Locaserin</t>
   </si>
 </sst>
 </file>
@@ -416,7 +413,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -701,7 +698,7 @@
   <dimension ref="A1:B71"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -720,7 +717,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -1106,7 +1103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1114,7 +1113,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" t="s">
         <v>98</v>
       </c>
       <c r="B1" t="s">
@@ -1278,7 +1277,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B92"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1298,11 +1297,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>102</v>
+      <c r="A2" s="6" t="s">
+        <v>99</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1310,478 +1309,509 @@
         <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B8" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B9" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B15" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B23" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>32</v>
+      <c r="B28" s="3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>33</v>
+      <c r="B29" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>34</v>
+      <c r="B30" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>36</v>
+      <c r="B32" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>37</v>
+      <c r="B33" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="2" t="s">
-        <v>38</v>
+      <c r="B34" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>43</v>
+      <c r="B39" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>44</v>
+      <c r="B40" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>49</v>
+      <c r="B45" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="4" t="s">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="4" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="4" t="s">
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="4" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="4" t="s">
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="4" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="1" t="s">
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="1" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="1" t="s">
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="1" t="s">
+    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B65" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
-        <v>71</v>
+      <c r="B67" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="1" t="s">
-        <v>72</v>
+      <c r="B68" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>73</v>
+      <c r="B69" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="1" t="s">
-        <v>74</v>
+      <c r="B70" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="1" t="s">
-        <v>75</v>
+      <c r="B71" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B72" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="1" t="s">
-        <v>77</v>
+      <c r="B73" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="2" t="s">
-        <v>78</v>
+      <c r="B74" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="1" t="s">
-        <v>79</v>
+      <c r="B75" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="1" t="s">
-        <v>82</v>
+      <c r="B78" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="1" t="s">
-        <v>84</v>
+      <c r="B80" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B83" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B84" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B85" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B88" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="5" t="s">
+    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B92" s="5" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="5" t="s">
+    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B93" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" t="s">
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" t="s">
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="2" t="s">
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" t="s">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" t="s">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10030001" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="B9" r:id="rId2" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10011108" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="B10" r:id="rId3" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10021922" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="B20" r:id="rId4" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078240" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="B21" r:id="rId5" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036886" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="B23" r:id="rId6" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10037705" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="B24" r:id="rId7" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078242" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="B26" r:id="rId8" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10003674" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="B27" r:id="rId9" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10054581" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="B34" r:id="rId10" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014387" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="B59" r:id="rId11" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10043821" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
-    <hyperlink ref="B60" r:id="rId12" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036359" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
-    <hyperlink ref="B62" r:id="rId13" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10023027" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
-    <hyperlink ref="B63" r:id="rId14" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014515" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
-    <hyperlink ref="B65" r:id="rId15" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10072761" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
-    <hyperlink ref="B66" r:id="rId16" display="http://bioportal.bioontology.org/ontologies/ICD10?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FICD10%2FI05.9" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
-    <hyperlink ref="B72" r:id="rId17" display="http://bioportal.bioontology.org/ontologies/CRISP?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FCSP%2F1393-3777" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
-    <hyperlink ref="B74" r:id="rId18" display="http://bioportal.bioontology.org/ontologies/SNOMEDCT?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FSNOMEDCT%2F194732001" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
-    <hyperlink ref="B90" r:id="rId19" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10026985" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="B4" r:id="rId1" display="http://bioportal.bioontology.org/ontologies/ICD10CM?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FICD10CM%2FI21.3" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10030001" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="B15" r:id="rId3" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10011108" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B16" r:id="rId4" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10021922" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="B26" r:id="rId5" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078240" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="B27" r:id="rId6" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036886" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="B29" r:id="rId7" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10037705" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="B30" r:id="rId8" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10078242" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="B32" r:id="rId9" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10003674" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="B33" r:id="rId10" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10054581" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="B40" r:id="rId11" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014387" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="B65" r:id="rId12" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10043821" xr:uid="{00000000-0004-0000-0200-00000B000000}"/>
+    <hyperlink ref="B66" r:id="rId13" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10036359" xr:uid="{00000000-0004-0000-0200-00000C000000}"/>
+    <hyperlink ref="B68" r:id="rId14" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10023027" xr:uid="{00000000-0004-0000-0200-00000D000000}"/>
+    <hyperlink ref="B69" r:id="rId15" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10014515" xr:uid="{00000000-0004-0000-0200-00000E000000}"/>
+    <hyperlink ref="B71" r:id="rId16" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10072761" xr:uid="{00000000-0004-0000-0200-00000F000000}"/>
+    <hyperlink ref="B72" r:id="rId17" display="http://bioportal.bioontology.org/ontologies/ICD10?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FICD10%2FI05.9" xr:uid="{00000000-0004-0000-0200-000010000000}"/>
+    <hyperlink ref="B78" r:id="rId18" display="http://bioportal.bioontology.org/ontologies/CRISP?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FCSP%2F1393-3777" xr:uid="{00000000-0004-0000-0200-000011000000}"/>
+    <hyperlink ref="B80" r:id="rId19" display="http://bioportal.bioontology.org/ontologies/SNOMEDCT?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FSNOMEDCT%2F194732001" xr:uid="{00000000-0004-0000-0200-000012000000}"/>
+    <hyperlink ref="B96" r:id="rId20" display="http://bioportal.bioontology.org/ontologies/MEDDRA?p=classes&amp;conceptid=http%3A%2F%2Fpurl.bioontology.org%2Fontology%2FMEDDRA%2F10026985" xr:uid="{00000000-0004-0000-0200-000013000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
